--- a/MS/MS_non_pdl_output.xlsx
+++ b/MS/MS_non_pdl_output.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -665,7 +665,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -953,7 +953,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1145,7 +1145,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2361,7 +2361,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2489,7 +2489,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2585,7 +2585,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2649,7 +2649,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2745,7 +2745,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2777,7 +2777,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2841,7 +2841,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2937,7 +2937,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3033,7 +3033,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3065,7 +3065,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3129,7 +3129,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3225,7 +3225,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3257,7 +3257,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3321,7 +3321,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3353,7 +3353,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3449,7 +3449,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3513,7 +3513,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3545,7 +3545,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3609,7 +3609,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3705,7 +3705,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3737,7 +3737,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3801,7 +3801,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3833,7 +3833,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3897,7 +3897,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3929,7 +3929,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3993,7 +3993,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4025,7 +4025,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4089,7 +4089,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4121,7 +4121,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4185,7 +4185,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4217,7 +4217,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4281,7 +4281,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4313,7 +4313,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4377,7 +4377,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4409,7 +4409,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4473,7 +4473,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4505,7 +4505,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -4569,7 +4569,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4601,7 +4601,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4665,7 +4665,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4697,7 +4697,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -4761,7 +4761,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4793,7 +4793,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4857,7 +4857,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -4889,7 +4889,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -4953,7 +4953,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -4985,7 +4985,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5049,7 +5049,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5081,7 +5081,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5145,7 +5145,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5177,7 +5177,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5241,7 +5241,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5273,7 +5273,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5337,7 +5337,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5369,7 +5369,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5433,7 +5433,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5465,7 +5465,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5529,7 +5529,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -5561,7 +5561,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5625,7 +5625,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5657,7 +5657,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -5721,7 +5721,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -5753,7 +5753,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -5817,7 +5817,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -5849,7 +5849,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -5913,7 +5913,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -5945,7 +5945,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -6009,7 +6009,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -6041,7 +6041,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -6105,7 +6105,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -6137,7 +6137,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -6201,7 +6201,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -6233,7 +6233,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -6297,7 +6297,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -6329,7 +6329,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -6393,7 +6393,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -6425,7 +6425,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -6489,7 +6489,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -6521,7 +6521,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -6585,7 +6585,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -6617,7 +6617,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -6681,7 +6681,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -6713,7 +6713,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -6777,7 +6777,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -6809,7 +6809,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -6873,7 +6873,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -6905,7 +6905,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -6969,7 +6969,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -7001,7 +7001,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -7065,7 +7065,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -7097,7 +7097,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -7161,7 +7161,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -7193,7 +7193,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -7257,7 +7257,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -7289,7 +7289,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -7353,7 +7353,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -7385,7 +7385,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -7417,7 +7417,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">

--- a/MS/MS_non_pdl_output.xlsx
+++ b/MS/MS_non_pdl_output.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -665,7 +665,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -953,7 +953,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1145,7 +1145,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2361,7 +2361,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2489,7 +2489,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2585,7 +2585,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2649,7 +2649,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2745,7 +2745,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2777,7 +2777,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2841,7 +2841,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2937,7 +2937,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3033,7 +3033,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3065,7 +3065,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3129,7 +3129,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3225,7 +3225,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3257,7 +3257,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3321,7 +3321,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3353,7 +3353,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3449,7 +3449,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3513,7 +3513,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3545,7 +3545,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3609,7 +3609,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3705,7 +3705,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3737,7 +3737,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3801,7 +3801,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3833,7 +3833,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3897,7 +3897,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3929,7 +3929,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3993,7 +3993,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4025,7 +4025,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4089,7 +4089,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4121,7 +4121,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4185,7 +4185,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4217,7 +4217,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4281,7 +4281,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4313,7 +4313,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4377,7 +4377,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4409,7 +4409,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4473,7 +4473,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4505,7 +4505,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -4569,7 +4569,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4601,7 +4601,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4665,7 +4665,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4697,7 +4697,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -4761,7 +4761,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4793,7 +4793,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4857,7 +4857,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -4889,7 +4889,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -4953,7 +4953,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -4985,7 +4985,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5049,7 +5049,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5081,7 +5081,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5145,7 +5145,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5177,7 +5177,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5241,7 +5241,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5273,7 +5273,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5337,7 +5337,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5369,7 +5369,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5433,7 +5433,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5465,7 +5465,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5529,7 +5529,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -5561,7 +5561,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5625,7 +5625,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5657,7 +5657,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -5721,7 +5721,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -5753,7 +5753,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -5817,7 +5817,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -5849,7 +5849,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -5913,7 +5913,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -5945,7 +5945,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -6009,7 +6009,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -6041,7 +6041,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -6105,7 +6105,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -6137,7 +6137,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -6201,7 +6201,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -6233,7 +6233,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -6297,7 +6297,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -6329,7 +6329,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -6393,7 +6393,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -6425,7 +6425,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -6489,7 +6489,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -6521,7 +6521,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -6585,7 +6585,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -6617,7 +6617,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -6681,7 +6681,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -6713,7 +6713,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -6777,7 +6777,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -6809,7 +6809,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -6873,7 +6873,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -6905,7 +6905,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -6969,7 +6969,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -7001,7 +7001,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -7065,7 +7065,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -7097,7 +7097,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -7161,7 +7161,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -7193,7 +7193,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -7257,7 +7257,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -7289,7 +7289,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -7353,7 +7353,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -7385,7 +7385,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -7417,7 +7417,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
